--- a/data/Maths/EvanChen.xlsx
+++ b/data/Maths/EvanChen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\GitHub\S2024\Summer2024.github.io\data\Maths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B9027-413F-4CA3-BD19-7186AF4978D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F40B968-6A93-4531-AC1F-FBE021F59A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Chapter</t>
   </si>
   <si>
     <t>Problem</t>
+  </si>
+  <si>
+    <t>40+3</t>
+  </si>
+  <si>
+    <t>43+1</t>
   </si>
 </sst>
 </file>
@@ -52,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +77,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -84,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -96,6 +108,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -378,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,10 +405,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -609,15 +624,15 @@
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="4">
-        <v>40</v>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>41</v>
       </c>
     </row>
@@ -625,8 +640,8 @@
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="1">
-        <v>42</v>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,14 +705,6 @@
         <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
         <v>51</v>
       </c>
     </row>
